--- a/AAII_Financials/Yearly/HI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HI_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/AAII_Financials/Yearly/HI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HI_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>HI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43373</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43008</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42643</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42277</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41912</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41547</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41182</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40816</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2517000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1807300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1770100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1590200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1538400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1596800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1667200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1553400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>983200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>883400</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1700800</v>
+      </c>
+      <c r="E9" s="3">
         <v>1183100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1126400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>992900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>964600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1023200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1077900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2057500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>590100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>513500</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>816200</v>
+      </c>
+      <c r="E10" s="3">
         <v>624200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>643700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>597300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>573800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>573600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>589300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-504100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>393100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>369900</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +837,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -857,9 +870,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,75 +906,84 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>236300</v>
+      </c>
+      <c r="E14" s="3">
         <v>27200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>69400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>12000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>13300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>30600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>32300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>21300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>14000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>7600</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>71900</v>
+      </c>
+      <c r="E15" s="3">
         <v>32500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>30200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>29200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>33000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>28100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>31600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>64100</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2462100</v>
+      </c>
+      <c r="E17" s="3">
         <v>1596500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1599700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1372500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1347300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1402800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1490200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1434300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>834400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>724800</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>54900</v>
+      </c>
+      <c r="E18" s="3">
         <v>210800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>170400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>217700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>191100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>194000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>177000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>119100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>148800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>158600</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,173 +1082,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-6700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-4200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-7900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>6200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>21400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>10200</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>189500</v>
+      </c>
+      <c r="E21" s="3">
         <v>262600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>226300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>270100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>249800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>240400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>241600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>229900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>187700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>204900</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>77400</v>
+      </c>
+      <c r="E22" s="3">
         <v>27400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>23300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>25200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>25300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>23800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>23300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>46800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>12400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>11000</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-18500</v>
+      </c>
+      <c r="E23" s="3">
         <v>176700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>146500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>188300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>164100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>162300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>159900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>93700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>134900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>157800</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>34900</v>
+      </c>
+      <c r="E24" s="3">
         <v>50500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>54400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>59900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>47300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>49100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>48700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>28300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>30100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>51700</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-53400</v>
+      </c>
+      <c r="E26" s="3">
         <v>126200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>92100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>128400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>116800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>113200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>111200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>65400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>104800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>106100</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-60100</v>
+      </c>
+      <c r="E27" s="3">
         <v>121400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>87500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>126200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>112800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>111400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>109700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>63400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>104800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>106100</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,20 +1403,23 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="3">
         <v>-10900</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1376,12 +1436,15 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E32" s="3">
         <v>6700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>4200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>7900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-6200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-21400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-10200</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-60100</v>
+      </c>
+      <c r="E33" s="3">
         <v>121400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>76600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>126200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>112800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>111400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>109700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>63400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>104800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>106100</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-60100</v>
+      </c>
+      <c r="E35" s="3">
         <v>121400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>76600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>126200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>112800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>111400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>109700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>63400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>104800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>106100</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43373</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43008</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42643</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42277</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41912</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41547</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41182</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40816</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,41 +1731,45 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>302200</v>
+      </c>
+      <c r="E41" s="3">
         <v>399000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>56000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>66000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>52000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>48300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>58000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>42700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>20200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>115500</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1711,141 +1800,156 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>417600</v>
+      </c>
+      <c r="E43" s="3">
         <v>398500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>338800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>331300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>330800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>332800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>340300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>355500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>150700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>131700</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>385400</v>
+      </c>
+      <c r="E44" s="3">
         <v>176600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>172500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>151600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>153100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>153600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>168500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>177500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>90000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>83700</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>264500</v>
+      </c>
+      <c r="E45" s="3">
         <v>49100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>43300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>44700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>64400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>69400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>71000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>63700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>44400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>49200</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1369700</v>
+      </c>
+      <c r="E46" s="3">
         <v>1023200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>610600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>593600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>600300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>604100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>637800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>639400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>305300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>380100</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1871,80 +1975,89 @@
         <v>0</v>
       </c>
       <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
         <v>15800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>17400</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>468600</v>
+      </c>
+      <c r="E48" s="3">
         <v>140300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>142000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>150400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>152500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>158300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>159500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>171900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>499700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>120600</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2098500</v>
+      </c>
+      <c r="E49" s="3">
         <v>1032900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1069200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1171400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1175800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1003600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1081200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1144400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>921300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>632800</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>50600</v>
+      </c>
+      <c r="E52" s="3">
         <v>32200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>42800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>41100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>32300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>42100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>40000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>47500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>46700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>29800</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3987400</v>
+      </c>
+      <c r="E54" s="3">
         <v>2228600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1864600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1956500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1960900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1808100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1918500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2003200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1087500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1180700</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,206 +2267,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>271600</v>
+      </c>
+      <c r="E57" s="3">
         <v>236200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>196800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>158000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>135700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>104300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>192600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>183200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>35300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>30500</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>36300</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>18800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>13800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>9400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>15000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>10000</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>544200</v>
+      </c>
+      <c r="E59" s="3">
         <v>353100</v>
-      </c>
-      <c r="E59" s="3">
-        <v>334900</v>
       </c>
       <c r="F59" s="3">
         <v>334900</v>
       </c>
       <c r="G59" s="3">
+        <v>334900</v>
+      </c>
+      <c r="H59" s="3">
         <v>284200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>290500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>283500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>272300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>158200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>105700</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>852100</v>
+      </c>
+      <c r="E60" s="3">
         <v>589300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>531700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>511700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>433700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>404200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>491100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>465500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>151800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>136200</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1516300</v>
+      </c>
+      <c r="E61" s="3">
         <v>619500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>344600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>446900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>596300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>518700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>543500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>654300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>271600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>431500</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>539600</v>
+      </c>
+      <c r="E62" s="3">
         <v>250000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>244200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>232000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>284700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>279400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>290100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>307100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>157800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>169900</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2928400</v>
+      </c>
+      <c r="E66" s="3">
         <v>1474500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1133500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1205100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1328600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1214000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1335200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1434900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>581200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>737600</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>481400</v>
+      </c>
+      <c r="E72" s="3">
         <v>599500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>531000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>507100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>433300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>372100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>311700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>252200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>238300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>182700</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1059000</v>
+      </c>
+      <c r="E76" s="3">
         <v>754100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>731100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>751400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>632300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>594100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>583300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>568300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>506300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>443100</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43373</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43008</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42643</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42277</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41912</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41547</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41182</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40816</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-60100</v>
+      </c>
+      <c r="E81" s="3">
         <v>121400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>76600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>126200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>112800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>111400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>109700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>63400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>104800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>106100</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>130600</v>
+      </c>
+      <c r="E83" s="3">
         <v>58500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>56500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>56600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>60400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>54300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>58400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>89400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>40400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>36100</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>354800</v>
+      </c>
+      <c r="E89" s="3">
         <v>178900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>248300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>246200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>238200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>105000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>179600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>127200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>138200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>189500</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-35900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-25500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-27000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-22000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-21200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-31000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-23600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-29900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-20900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-21900</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1295900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-51200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-23100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-13500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-253500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-29500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-8300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-441000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-22500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-154500</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,41 +3524,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-63400</v>
+      </c>
+      <c r="E96" s="3">
         <v>-52600</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-52100</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-51900</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-51100</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-50400</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-49700</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-48700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-47600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-46900</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>854900</v>
+      </c>
+      <c r="E100" s="3">
         <v>217500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-232500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-215100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>21600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-83200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-155500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>336500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-211100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-22000</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-3600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-2600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-2000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>4100</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-87600</v>
+      </c>
+      <c r="E102" s="3">
         <v>342900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-10000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>14000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-9700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>15300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>22500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-95300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>17100</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/HI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HI_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>HI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,177 @@
     <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43373</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43008</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42643</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42277</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41912</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41547</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41182</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40816</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2864800</v>
+      </c>
+      <c r="E8" s="3">
         <v>2517000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1807300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1770100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1590200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1538400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1596800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1667200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1553400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>983200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>883400</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1894000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1700800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1183100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1126400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>992900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>964600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1023200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1077900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2057500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>590100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>513500</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>970800</v>
+      </c>
+      <c r="E10" s="3">
         <v>816200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>624200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>643700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>597300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>573800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>573600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>589300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-504100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>393100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>369900</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +850,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -873,9 +886,12 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,81 +925,90 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E14" s="3">
         <v>236300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>27200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>69400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>12000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>13300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>30600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>32300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>21300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>14000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>7600</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>55700</v>
+      </c>
+      <c r="E15" s="3">
         <v>71900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>32500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>30200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>29200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>33000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>28100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>31600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>64100</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2433700</v>
+      </c>
+      <c r="E17" s="3">
         <v>2462100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1596500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1599700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1372500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1347300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1402800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1490200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1434300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>834400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>724800</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>431100</v>
+      </c>
+      <c r="E18" s="3">
         <v>54900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>210800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>170400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>217700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>191100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>194000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>177000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>119100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>148800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>158600</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,188 +1115,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>300</v>
+      </c>
+      <c r="E20" s="3">
         <v>4000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-6700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-4200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-7900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>6200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>21400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>10200</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>546500</v>
+      </c>
+      <c r="E21" s="3">
         <v>189500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>262600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>226300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>270100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>249800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>240400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>241600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>229900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>187700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>204900</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>77600</v>
+      </c>
+      <c r="E22" s="3">
         <v>77400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>27400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>23300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>25200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>25300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>23800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>23300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>46800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>12400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>11000</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>353800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-18500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>176700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>146500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>188300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>164100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>162300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>159900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>93700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>134900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>157800</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>98600</v>
+      </c>
+      <c r="E24" s="3">
         <v>34900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>50500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>54400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>59900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>47300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>49100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>48700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>28300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>30100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>51700</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>255200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-53400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>126200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>92100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>128400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>116800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>113200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>111200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>65400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>104800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>106100</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>249900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-60100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>121400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>87500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>126200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>112800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>111400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>109700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>63400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>104800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>106100</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,9 +1463,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1418,11 +1478,11 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3">
         <v>-10900</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1439,12 +1499,15 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-4000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>6700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>4200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>7900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-6200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-21400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-10200</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>249900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-60100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>121400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>76600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>126200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>112800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>111400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>109700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>63400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>104800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>106100</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>249900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-60100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>121400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>76600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>126200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>112800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>111400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>109700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>63400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>104800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>106100</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43373</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43008</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42643</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42277</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41912</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41547</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41182</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40816</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,44 +1817,48 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>446100</v>
+      </c>
+      <c r="E41" s="3">
         <v>302200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>399000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>56000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>66000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>52000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>48300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>58000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>42700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>20200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>115500</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1803,153 +1892,168 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>445400</v>
+      </c>
+      <c r="E43" s="3">
         <v>417600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>398500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>338800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>331300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>330800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>332800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>340300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>355500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>150700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>131700</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>411600</v>
+      </c>
+      <c r="E44" s="3">
         <v>385400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>176600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>172500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>151600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>153100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>153600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>168500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>177500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>90000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>83700</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>131400</v>
+      </c>
+      <c r="E45" s="3">
         <v>264500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>49100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>43300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>44700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>64400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>69400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>71000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>63700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>44400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>49200</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1434500</v>
+      </c>
+      <c r="E46" s="3">
         <v>1369700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1023200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>610600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>593600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>600300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>604100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>637800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>639400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>305300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>380100</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1978,86 +2082,95 @@
         <v>0</v>
       </c>
       <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
         <v>15800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>17400</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>433200</v>
+      </c>
+      <c r="E48" s="3">
         <v>468600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>140300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>142000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>150400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>152500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>158300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>159500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>171900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>499700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>120600</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2082500</v>
+      </c>
+      <c r="E49" s="3">
         <v>2098500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1032900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1069200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1171400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1175800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1003600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1081200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1144400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>921300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>632800</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>64700</v>
+      </c>
+      <c r="E52" s="3">
         <v>50600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>32200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>42800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>41100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>32300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>42100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>40000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>47500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>46700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>29800</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4014900</v>
+      </c>
+      <c r="E54" s="3">
         <v>3987400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2228600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1864600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1956500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1960900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1808100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1918500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2003200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1087500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1180700</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,224 +2397,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>361300</v>
+      </c>
+      <c r="E57" s="3">
         <v>271600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>236200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>196800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>158000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>135700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>104300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>192600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>183200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>35300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>30500</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>36300</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>18800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>13800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>9400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>15000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>10000</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>673800</v>
+      </c>
+      <c r="E59" s="3">
         <v>544200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>353100</v>
-      </c>
-      <c r="F59" s="3">
-        <v>334900</v>
       </c>
       <c r="G59" s="3">
         <v>334900</v>
       </c>
       <c r="H59" s="3">
+        <v>334900</v>
+      </c>
+      <c r="I59" s="3">
         <v>284200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>290500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>283500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>272300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>158200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>105700</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1035100</v>
+      </c>
+      <c r="E60" s="3">
         <v>852100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>589300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>531700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>511700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>433700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>404200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>491100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>465500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>151800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>136200</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1212900</v>
+      </c>
+      <c r="E61" s="3">
         <v>1516300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>619500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>344600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>446900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>596300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>518700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>543500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>654300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>271600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>431500</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>534700</v>
+      </c>
+      <c r="E62" s="3">
         <v>539600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>250000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>244200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>232000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>284700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>279400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>290100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>307100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>157800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>169900</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2805300</v>
+      </c>
+      <c r="E66" s="3">
         <v>2928400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1474500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1133500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1205100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1328600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1214000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1335200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1434900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>581200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>737600</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>666200</v>
+      </c>
+      <c r="E72" s="3">
         <v>481400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>599500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>531000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>507100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>433300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>372100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>311700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>252200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>238300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>182700</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1209600</v>
+      </c>
+      <c r="E76" s="3">
         <v>1059000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>754100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>731100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>751400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>632300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>594100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>583300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>568300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>506300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>443100</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43373</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43008</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42643</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42277</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41912</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41547</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41182</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40816</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>249900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-60100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>121400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>76600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>126200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>112800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>111400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>109700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>63400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>104800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>106100</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>115100</v>
+      </c>
+      <c r="E83" s="3">
         <v>130600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>58500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>56500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>56600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>60400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>54300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>58400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>89400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>40400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>36100</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>528400</v>
+      </c>
+      <c r="E89" s="3">
         <v>354800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>178900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>248300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>246200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>238200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>105000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>179600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>127200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>138200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>189500</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-40000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-35900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-25500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-27000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-22000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-21200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-31000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-23600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-29900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-20900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-21900</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>126000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1295900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-51200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-23100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-13500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-253500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-29500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-8300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-441000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-22500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-154500</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,44 +3757,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-64000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-63400</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-52600</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-52100</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-51900</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-51100</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-50400</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-49700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-48700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-47600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-46900</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-523300</v>
+      </c>
+      <c r="E100" s="3">
         <v>854900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>217500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-232500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-215100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>21600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-83200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-155500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>336500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-211100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-22000</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-3600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-2600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-2000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>4100</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>139100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-87600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>342900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-10000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>14000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-9700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>15300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>22500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-95300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>17100</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/HI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HI_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>HI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,177 +665,189 @@
     <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43373</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43008</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42643</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42277</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41912</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41547</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41182</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40816</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2940900</v>
+      </c>
+      <c r="E8" s="3">
         <v>2864800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2517000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1807300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1770100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1590200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1538400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1596800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1667200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1553400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>983200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>883400</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1984500</v>
+      </c>
+      <c r="E9" s="3">
         <v>1894000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1700800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1183100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1126400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>992900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>964600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1023200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1077900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2057500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>590100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>513500</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>956400</v>
+      </c>
+      <c r="E10" s="3">
         <v>970800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>816200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>624200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>643700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>597300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>573800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>573600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>589300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-504100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>393100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>369900</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,8 +863,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -889,9 +902,12 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,87 +944,96 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E14" s="3">
         <v>-2300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>236300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>27200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>69400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>12000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>13300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>30600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>32300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>21300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>14000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>7600</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>54000</v>
+      </c>
+      <c r="E15" s="3">
         <v>55700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>71900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>32500</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>30200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>29200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>33000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>28100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>31600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>64100</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2565500</v>
+      </c>
+      <c r="E17" s="3">
         <v>2433700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2462100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1596500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1599700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1372500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1347300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1402800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1490200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1434300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>834400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>724800</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>375400</v>
+      </c>
+      <c r="E18" s="3">
         <v>431100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>54900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>210800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>170400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>217700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>191100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>194000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>177000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>119100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>148800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>158600</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1116,203 +1148,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>4000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-6700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-4200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-7900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>6200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>21400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>10200</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>492000</v>
+      </c>
+      <c r="E21" s="3">
         <v>546500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>189500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>262600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>226300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>270100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>249800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>240400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>241600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>229900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>187700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>204900</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>69800</v>
+      </c>
+      <c r="E22" s="3">
         <v>77600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>77400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>27400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>23300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>25200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>25300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>23800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>23300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>46800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>12400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>11000</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>314000</v>
+      </c>
+      <c r="E23" s="3">
         <v>353800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-18500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>176700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>146500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>188300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>164100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>162300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>159900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>93700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>134900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>157800</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>98800</v>
+      </c>
+      <c r="E24" s="3">
         <v>98600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>34900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>50500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>54400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>59900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>47300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>49100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>48700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>28300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>30100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>51700</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>215200</v>
+      </c>
+      <c r="E26" s="3">
         <v>255200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-53400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>126200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>92100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>128400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>116800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>113200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>111200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>65400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>104800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>106100</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>208900</v>
+      </c>
+      <c r="E27" s="3">
         <v>249900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-60100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>121400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>87500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>126200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>112800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>111400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>109700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>63400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>104800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>106100</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1466,9 +1523,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1481,11 +1541,11 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3">
         <v>-10900</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1502,12 +1562,15 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1583,87 +1649,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-4000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>6700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>4200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>7900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-6200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-21400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-10200</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>208900</v>
+      </c>
+      <c r="E33" s="3">
         <v>249900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-60100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>121400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>76600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>126200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>112800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>111400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>109700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>63400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>104800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>106100</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>208900</v>
+      </c>
+      <c r="E35" s="3">
         <v>249900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-60100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>121400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>76600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>126200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>112800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>111400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>109700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>63400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>104800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>106100</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43373</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43008</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42643</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42277</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41912</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41547</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41182</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40816</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1818,47 +1903,51 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>232200</v>
+      </c>
+      <c r="E41" s="3">
         <v>446100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>302200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>399000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>56000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>66000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>52000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>48300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>58000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>42700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>20200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>115500</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1895,165 +1984,180 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>466200</v>
+      </c>
+      <c r="E43" s="3">
         <v>445400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>417600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>398500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>338800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>331300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>330800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>332800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>340300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>355500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>150700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>131700</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>485600</v>
+      </c>
+      <c r="E44" s="3">
         <v>411600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>385400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>176600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>172500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>151600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>153100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>153600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>168500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>177500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>90000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>83700</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>218900</v>
+      </c>
+      <c r="E45" s="3">
         <v>131400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>264500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>49100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>43300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>44700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>64400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>69400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>71000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>63700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>44400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>49200</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1402900</v>
+      </c>
+      <c r="E46" s="3">
         <v>1434500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1369700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1023200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>610600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>593600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>600300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>604100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>637800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>639400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>305300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>380100</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2085,92 +2189,101 @@
         <v>0</v>
       </c>
       <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
         <v>15800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>17400</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>724300</v>
+      </c>
+      <c r="E48" s="3">
         <v>433200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>468600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>140300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>142000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>150400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>152500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>158300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>159500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>171900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>499700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>120600</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1959100</v>
+      </c>
+      <c r="E49" s="3">
         <v>2082500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2098500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1032900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1069200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1171400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1175800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1003600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1081200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1144400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>921300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>632800</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,48 +2362,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>185700</v>
+      </c>
+      <c r="E52" s="3">
         <v>64700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>50600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>32200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>42800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>41100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>32300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>42100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>40000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>47500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>46700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>29800</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3867500</v>
+      </c>
+      <c r="E54" s="3">
         <v>4014900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3987400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2228600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1864600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1956500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1960900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1808100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1918500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2003200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1087500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1180700</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,47 +2527,51 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>371000</v>
+      </c>
+      <c r="E57" s="3">
         <v>361300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>271600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>236200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>196800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>158000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>135700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>104300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>192600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>183200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>35300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>30500</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2446,194 +2579,209 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>36300</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>18800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>13800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>9400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>15000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>10000</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>706800</v>
+      </c>
+      <c r="E59" s="3">
         <v>673800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>544200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>353100</v>
-      </c>
-      <c r="G59" s="3">
-        <v>334900</v>
       </c>
       <c r="H59" s="3">
         <v>334900</v>
       </c>
       <c r="I59" s="3">
+        <v>334900</v>
+      </c>
+      <c r="J59" s="3">
         <v>284200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>290500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>283500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>272300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>158200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>105700</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1077800</v>
+      </c>
+      <c r="E60" s="3">
         <v>1035100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>852100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>589300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>531700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>511700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>433700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>404200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>491100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>465500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>151800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>136200</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1222100</v>
+      </c>
+      <c r="E61" s="3">
         <v>1212900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1516300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>619500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>344600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>446900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>596300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>518700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>543500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>654300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>271600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>431500</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>433800</v>
+      </c>
+      <c r="E62" s="3">
         <v>534700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>539600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>250000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>244200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>232000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>284700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>279400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>290100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>307100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>157800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>169900</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2784600</v>
+      </c>
+      <c r="E66" s="3">
         <v>2805300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2928400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1474500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1133500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1205100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1328600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1214000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1335200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1434900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>581200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>737600</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,9 +3046,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2921,9 +3088,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>812000</v>
+      </c>
+      <c r="E72" s="3">
         <v>666200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>481400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>599500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>531000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>507100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>433300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>372100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>311700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>252200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>238300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>182700</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1082900</v>
+      </c>
+      <c r="E76" s="3">
         <v>1209600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1059000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>754100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>731100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>751400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>632300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>594100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>583300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>568300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>506300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>443100</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43373</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43008</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42643</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42277</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41912</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41547</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41182</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40816</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>208900</v>
+      </c>
+      <c r="E81" s="3">
         <v>249900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-60100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>121400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>76600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>126200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>112800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>111400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>109700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>63400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>104800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>106100</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,47 +3492,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>108200</v>
+      </c>
+      <c r="E83" s="3">
         <v>115100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>130600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>58500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>56500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>56600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>60400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>54300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>58400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>89400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>40400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>36100</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>191100</v>
+      </c>
+      <c r="E89" s="3">
         <v>528400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>354800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>178900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>248300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>246200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>238200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>105000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>179600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>127200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>138200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>189500</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,47 +3804,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-50300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-40000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-35900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-25500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-27000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-22000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-21200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-31000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-23600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-29900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-20900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-21900</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,48 +3927,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-143400</v>
+      </c>
+      <c r="E94" s="3">
         <v>126000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1295900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-51200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-23100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-13500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-253500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-29500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-8300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-441000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-22500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-154500</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,47 +3990,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-62000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-64000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-63400</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-52600</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-52100</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-51900</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-51100</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-50400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-49700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-48700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-47600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-46900</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,124 +4155,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-244200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-523300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>854900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>217500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-232500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-215100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>21600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-83200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-155500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>336500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-211100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-22000</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-16800</v>
+      </c>
+      <c r="E101" s="3">
         <v>8000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-2700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-3600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-2600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>4100</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-213300</v>
+      </c>
+      <c r="E102" s="3">
         <v>139100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-87600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>342900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-10000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>14000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-9700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>15300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>22500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-95300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>17100</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/HI_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HI_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>HI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,189 +665,201 @@
     <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43008</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42643</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42277</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41912</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41547</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>41182</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>40816</v>
       </c>
-      <c r="P7" s="2"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2940900</v>
+        <v>2826000</v>
       </c>
       <c r="E8" s="3">
-        <v>2864800</v>
+        <v>2315300</v>
       </c>
       <c r="F8" s="3">
+        <v>2241400</v>
+      </c>
+      <c r="G8" s="3">
         <v>2517000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1807300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1770100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1590200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1538400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1596800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1667200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1553400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>983200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>883400</v>
       </c>
-      <c r="P8" s="3"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1984500</v>
+        <v>1877800</v>
       </c>
       <c r="E9" s="3">
-        <v>1894000</v>
+        <v>3536000</v>
       </c>
       <c r="F9" s="3">
+        <v>3403100</v>
+      </c>
+      <c r="G9" s="3">
         <v>1700800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1183100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1126400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>992900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>964600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1023200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1077900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2057500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>590100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>513500</v>
       </c>
-      <c r="P9" s="3"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>956400</v>
+        <v>948200</v>
       </c>
       <c r="E10" s="3">
-        <v>970800</v>
+        <v>-1220700</v>
       </c>
       <c r="F10" s="3">
+        <v>-1161700</v>
+      </c>
+      <c r="G10" s="3">
         <v>816200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>624200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>643700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>597300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>573800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>573600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>589300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-504100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>393100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>369900</v>
       </c>
-      <c r="P10" s="3"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -864,8 +876,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -905,9 +918,12 @@
       <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P12" s="3"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="3"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -947,93 +963,102 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-      <c r="P13" s="3"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>40000</v>
+        <v>47800</v>
       </c>
       <c r="E14" s="3">
+        <v>37500</v>
+      </c>
+      <c r="F14" s="3">
         <v>-2300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>236300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>27200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>69400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>12000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>13300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>30600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>32300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>21300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>14000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>7600</v>
       </c>
-      <c r="P14" s="3"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>79600</v>
+      </c>
+      <c r="E15" s="3">
         <v>54000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>55700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>71900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>32500</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>30200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>29200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>33000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>28100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>31600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>64100</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P15" s="3"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q15" s="3"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1047,92 +1072,99 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2565500</v>
+        <v>2531400</v>
       </c>
       <c r="E17" s="3">
-        <v>2433700</v>
+        <v>2051300</v>
       </c>
       <c r="F17" s="3">
+        <v>1960500</v>
+      </c>
+      <c r="G17" s="3">
         <v>2462100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1596500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1599700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1372500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1347300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1402800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1490200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1434300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>834400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>724800</v>
       </c>
-      <c r="P17" s="3"/>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3"/>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>375400</v>
+        <v>294600</v>
       </c>
       <c r="E18" s="3">
-        <v>431100</v>
+        <v>264000</v>
       </c>
       <c r="F18" s="3">
+        <v>280900</v>
+      </c>
+      <c r="G18" s="3">
         <v>54900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>210800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>170400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>217700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>191100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>194000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>177000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>119100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>148800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>158600</v>
       </c>
-      <c r="P18" s="3"/>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3"/>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1149,218 +1181,234 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>8400</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>4000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-6700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-4200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-7900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>6200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>21400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>10200</v>
       </c>
-      <c r="P20" s="3"/>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3"/>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>492000</v>
+        <v>402800</v>
       </c>
       <c r="E21" s="3">
-        <v>546500</v>
+        <v>379100</v>
       </c>
       <c r="F21" s="3">
-        <v>189500</v>
+        <v>411500</v>
       </c>
       <c r="G21" s="3">
-        <v>262600</v>
+        <v>117400</v>
       </c>
       <c r="H21" s="3">
-        <v>226300</v>
+        <v>260600</v>
       </c>
       <c r="I21" s="3">
-        <v>270100</v>
+        <v>226400</v>
       </c>
       <c r="J21" s="3">
+        <v>273900</v>
+      </c>
+      <c r="K21" s="3">
         <v>249800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>240400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>241600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>229900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>187700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>204900</v>
       </c>
-      <c r="P21" s="3"/>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3"/>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>69800</v>
+        <v>77700</v>
       </c>
       <c r="E22" s="3">
-        <v>77600</v>
+        <v>64300</v>
       </c>
       <c r="F22" s="3">
+        <v>74300</v>
+      </c>
+      <c r="G22" s="3">
         <v>77400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>27400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>23300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>25200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>25300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>23800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>23300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>46800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>12400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>11000</v>
       </c>
-      <c r="P22" s="3"/>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3"/>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>314000</v>
+        <v>216900</v>
       </c>
       <c r="E23" s="3">
-        <v>353800</v>
+        <v>199700</v>
       </c>
       <c r="F23" s="3">
+        <v>206600</v>
+      </c>
+      <c r="G23" s="3">
         <v>-18500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>176700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>146500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>188300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>164100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>162300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>159900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>93700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>134900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>157800</v>
       </c>
-      <c r="P23" s="3"/>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3"/>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>98800</v>
+        <v>102800</v>
       </c>
       <c r="E24" s="3">
-        <v>98600</v>
+        <v>84000</v>
       </c>
       <c r="F24" s="3">
+        <v>78600</v>
+      </c>
+      <c r="G24" s="3">
         <v>34900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>50500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>54400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>59900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>47300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>49100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>48700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>28300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>30100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>51700</v>
       </c>
-      <c r="P24" s="3"/>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3"/>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1400,93 +1448,102 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-      <c r="P25" s="3"/>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3"/>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>215200</v>
+        <v>114100</v>
       </c>
       <c r="E26" s="3">
-        <v>255200</v>
+        <v>115700</v>
       </c>
       <c r="F26" s="3">
+        <v>128000</v>
+      </c>
+      <c r="G26" s="3">
         <v>-53400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>126200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>92100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>128400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>116800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>113200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>111200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>65400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>104800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>106100</v>
       </c>
-      <c r="P26" s="3"/>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3"/>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>208900</v>
+        <v>107100</v>
       </c>
       <c r="E27" s="3">
-        <v>249900</v>
+        <v>109400</v>
       </c>
       <c r="F27" s="3">
+        <v>122700</v>
+      </c>
+      <c r="G27" s="3">
         <v>-60100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>121400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>87500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>126200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>112800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>111400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>109700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>63400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>104800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>106100</v>
       </c>
-      <c r="P27" s="3"/>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3"/>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1526,29 +1583,32 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-      <c r="P28" s="3"/>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3"/>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>462600</v>
+      </c>
+      <c r="E29" s="3">
+        <v>99500</v>
+      </c>
+      <c r="F29" s="3">
+        <v>127200</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3">
         <v>-10900</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1565,12 +1625,15 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3"/>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3"/>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1610,9 +1673,12 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-      <c r="P30" s="3"/>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3"/>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1652,93 +1718,102 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-      <c r="P31" s="3"/>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3"/>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-8400</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-4000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>6700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>4200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>7900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-6200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-21400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-10200</v>
       </c>
-      <c r="P32" s="3"/>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3"/>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>569700</v>
+      </c>
+      <c r="E33" s="3">
         <v>208900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>249900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-60100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>121400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>76600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>126200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>112800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>111400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>109700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>63400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>104800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>106100</v>
       </c>
-      <c r="P33" s="3"/>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3"/>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1778,98 +1853,107 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-      <c r="P34" s="3"/>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3"/>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>569700</v>
+      </c>
+      <c r="E35" s="3">
         <v>208900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>249900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-60100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>121400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>76600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>126200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>112800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>111400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>109700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>63400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>104800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>106100</v>
       </c>
-      <c r="P35" s="3"/>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3"/>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43008</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42643</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42277</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41912</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41547</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>41182</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>40816</v>
       </c>
-      <c r="P38" s="2"/>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2"/>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1886,8 +1970,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1904,50 +1989,54 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>242900</v>
+      </c>
+      <c r="E41" s="3">
         <v>232200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>446100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>302200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>399000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>56000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>66000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>52000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>48300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>58000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>42700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>20200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>115500</v>
       </c>
-      <c r="P41" s="3"/>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3"/>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1987,177 +2076,192 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-      <c r="P42" s="3"/>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3"/>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>658900</v>
+      </c>
+      <c r="E43" s="3">
         <v>466200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>445400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>417600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>398500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>338800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>331300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>330800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>332800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>340300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>355500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>150700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>131700</v>
       </c>
-      <c r="P43" s="3"/>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3"/>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>592600</v>
+      </c>
+      <c r="E44" s="3">
         <v>485600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>411600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>385400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>176600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>172500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>151600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>153100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>153600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>168500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>177500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>90000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>83700</v>
       </c>
-      <c r="P44" s="3"/>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3"/>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>113200</v>
+      </c>
+      <c r="E45" s="3">
         <v>218900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>131400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>264500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>49100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>43300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>44700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>64400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>69400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>71000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>63700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>44400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>49200</v>
       </c>
-      <c r="P45" s="3"/>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3"/>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1607600</v>
+      </c>
+      <c r="E46" s="3">
         <v>1402900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1434500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1369700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1023200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>610600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>593600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>600300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>604100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>637800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>639400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>305300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>380100</v>
       </c>
-      <c r="P46" s="3"/>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3"/>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2192,98 +2296,107 @@
         <v>0</v>
       </c>
       <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
         <v>15800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>17400</v>
       </c>
-      <c r="P47" s="3"/>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3"/>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>432000</v>
+      </c>
+      <c r="E48" s="3">
         <v>724300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>433200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>468600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>140300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>142000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>150400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>152500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>158300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>159500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>171900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>499700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>120600</v>
       </c>
-      <c r="P48" s="3"/>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3"/>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3405200</v>
+      </c>
+      <c r="E49" s="3">
         <v>1959100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2082500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2098500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1032900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1069200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1171400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1175800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1003600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1081200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1144400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>921300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>632800</v>
       </c>
-      <c r="P49" s="3"/>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3"/>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2323,9 +2436,12 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-      <c r="P50" s="3"/>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3"/>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2365,51 +2481,57 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-      <c r="P51" s="3"/>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3"/>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>102900</v>
+      </c>
+      <c r="E52" s="3">
         <v>185700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>64700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>50600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>32200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>42800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>41100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>32300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>42100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>40000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>47500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>46700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>29800</v>
       </c>
-      <c r="P52" s="3"/>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3"/>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2449,51 +2571,57 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-      <c r="P53" s="3"/>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3"/>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5547700</v>
+      </c>
+      <c r="E54" s="3">
         <v>3867500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4014900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3987400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2228600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1864600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1956500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1960900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1808100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1918500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2003200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1087500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1180700</v>
       </c>
-      <c r="P54" s="3"/>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3"/>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2510,8 +2638,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2528,260 +2657,279 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>451500</v>
+      </c>
+      <c r="E57" s="3">
         <v>371000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>361300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>271600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>236200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>196800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>158000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>135700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>104300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>192600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>183200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>35300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>30500</v>
       </c>
-      <c r="P57" s="3"/>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3"/>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>19700</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>36300</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>18800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>13800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>9400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>15000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>10000</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P58" s="3"/>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q58" s="3"/>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>819800</v>
+      </c>
+      <c r="E59" s="3">
         <v>706800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>673800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>544200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>353100</v>
-      </c>
-      <c r="H59" s="3">
-        <v>334900</v>
       </c>
       <c r="I59" s="3">
         <v>334900</v>
       </c>
       <c r="J59" s="3">
+        <v>334900</v>
+      </c>
+      <c r="K59" s="3">
         <v>284200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>290500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>283500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>272300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>158200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>105700</v>
       </c>
-      <c r="P59" s="3"/>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3"/>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1291000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1077800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1035100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>852100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>589300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>531700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>511700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>433700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>404200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>491100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>465500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>151800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>136200</v>
       </c>
-      <c r="P60" s="3"/>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3"/>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1990400</v>
+      </c>
+      <c r="E61" s="3">
         <v>1222100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1212900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1516300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>619500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>344600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>446900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>596300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>518700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>543500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>654300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>271600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>431500</v>
       </c>
-      <c r="P61" s="3"/>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3"/>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>603400</v>
+      </c>
+      <c r="E62" s="3">
         <v>433800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>534700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>539600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>250000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>244200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>232000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>284700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>279400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>290100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>307100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>157800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>169900</v>
       </c>
-      <c r="P62" s="3"/>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3"/>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2821,9 +2969,12 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-      <c r="P63" s="3"/>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3"/>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2863,9 +3014,12 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-      <c r="P64" s="3"/>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3"/>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2905,51 +3059,57 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-      <c r="P65" s="3"/>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3"/>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3917400</v>
+      </c>
+      <c r="E66" s="3">
         <v>2784600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2805300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2928400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1474500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1133500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1205100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1328600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1214000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1335200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1434900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>581200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>737600</v>
       </c>
-      <c r="P66" s="3"/>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3"/>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2966,8 +3126,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3007,9 +3168,12 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-      <c r="P68" s="3"/>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3"/>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3049,9 +3213,12 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-      <c r="P69" s="3"/>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3"/>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3091,9 +3258,12 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-      <c r="P70" s="3"/>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3"/>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3133,51 +3303,57 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-      <c r="P71" s="3"/>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3"/>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1319600</v>
+      </c>
+      <c r="E72" s="3">
         <v>812000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>666200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>481400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>599500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>531000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>507100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>433300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>372100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>311700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>252200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>238300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>182700</v>
       </c>
-      <c r="P72" s="3"/>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3"/>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3217,9 +3393,12 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-      <c r="P73" s="3"/>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3"/>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3259,9 +3438,12 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-      <c r="P74" s="3"/>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3"/>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3301,51 +3483,57 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-      <c r="P75" s="3"/>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3"/>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1630300</v>
+      </c>
+      <c r="E76" s="3">
         <v>1082900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1209600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1059000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>754100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>731100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>751400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>632300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>594100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>583300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>568300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>506300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>443100</v>
       </c>
-      <c r="P76" s="3"/>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3"/>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3385,98 +3573,107 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-      <c r="P77" s="3"/>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3"/>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43008</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42643</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42277</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41912</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41547</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>41182</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>40816</v>
       </c>
-      <c r="P80" s="2"/>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2"/>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>569700</v>
+      </c>
+      <c r="E81" s="3">
         <v>208900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>249900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-60100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>121400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>76600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>126200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>112800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>111400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>109700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>63400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>104800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>106100</v>
       </c>
-      <c r="P81" s="3"/>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3"/>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3493,50 +3690,54 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>108200</v>
+        <v>125600</v>
       </c>
       <c r="E83" s="3">
-        <v>115100</v>
+        <v>98600</v>
       </c>
       <c r="F83" s="3">
+        <v>104600</v>
+      </c>
+      <c r="G83" s="3">
         <v>130600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>58500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>56500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>56600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>60400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>54300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>58400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>89400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>40400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>36100</v>
       </c>
-      <c r="P83" s="3"/>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3"/>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3576,9 +3777,12 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-      <c r="P84" s="3"/>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3"/>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3618,9 +3822,12 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-      <c r="P85" s="3"/>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3"/>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3660,9 +3867,12 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-      <c r="P86" s="3"/>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3"/>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3702,9 +3912,12 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-      <c r="P87" s="3"/>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3"/>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3744,51 +3957,57 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-      <c r="P88" s="3"/>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3"/>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>70200</v>
+      </c>
+      <c r="E89" s="3">
         <v>191100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>528400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>354800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>178900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>248300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>246200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>238200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>105000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>179600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>127200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>138200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>189500</v>
       </c>
-      <c r="P89" s="3"/>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3"/>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3805,50 +4024,54 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-50300</v>
+        <v>-69300</v>
       </c>
       <c r="E91" s="3">
-        <v>-40000</v>
+        <v>-38300</v>
       </c>
       <c r="F91" s="3">
+        <v>-28200</v>
+      </c>
+      <c r="G91" s="3">
         <v>-35900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-25500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-27000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-22000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-21200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-31000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-23600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-29900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-20900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-21900</v>
       </c>
-      <c r="P91" s="3"/>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3"/>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3888,9 +4111,12 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-      <c r="P92" s="3"/>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3"/>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3930,51 +4156,57 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-      <c r="P93" s="3"/>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3"/>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-729900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-143400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>126000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1295900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-51200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-23100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-13500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-253500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-29500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-8300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-441000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-22500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-154500</v>
       </c>
-      <c r="P94" s="3"/>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3"/>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3991,50 +4223,54 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-61300</v>
+      </c>
+      <c r="E96" s="3">
         <v>-62000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-64000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-63400</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-52600</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-52100</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-51900</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-51100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-50400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-49700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-48700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-47600</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-46900</v>
       </c>
-      <c r="P96" s="3"/>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3"/>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4074,9 +4310,12 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-      <c r="P97" s="3"/>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3"/>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4116,9 +4355,12 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-      <c r="P98" s="3"/>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3"/>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4158,133 +4400,145 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-      <c r="P99" s="3"/>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3"/>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>693400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-244200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-523300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>854900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>217500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-232500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-215100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>21600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-83200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-155500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>336500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-211100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-22000</v>
       </c>
-      <c r="P100" s="3"/>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3"/>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-16800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>8000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-2300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-2700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-3600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>4100</v>
       </c>
-      <c r="P101" s="3"/>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3"/>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-213300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>139100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-87600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>342900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-10000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>14000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>3700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-9700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>15300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>22500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-95300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>17100</v>
       </c>
-      <c r="P102" s="3"/>
+      <c r="Q102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
